--- a/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Type of exposure.xlsx
+++ b/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Type of exposure.xlsx
@@ -35,6 +35,18 @@
     <t>Exposure for less than 24 hours. Usually refers to a single administration or exposure.</t>
   </si>
   <si>
+    <t>Chronic</t>
+  </si>
+  <si>
+    <t>Type of exposure_1</t>
+  </si>
+  <si>
+    <t>Repeated exposures that last from one to three months.</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
     <t>Subacute</t>
   </si>
   <si>
@@ -44,15 +56,6 @@
     <t>Repeated exposures that last a month or less.</t>
   </si>
   <si>
-    <t>Chronic</t>
-  </si>
-  <si>
-    <t>Type of exposure_1</t>
-  </si>
-  <si>
-    <t>Repeated exposures that last from one to three months.</t>
-  </si>
-  <si>
     <t>Subchronic</t>
   </si>
   <si>
@@ -60,9 +63,6 @@
   </si>
   <si>
     <t>Repeated exposures that last more than three months.</t>
-  </si>
-  <si>
-    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -151,26 +151,19 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
@@ -193,11 +186,18 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
     </row>
     <row r="7">
       <c r="B7"/>
